--- a/чистый бланк/Бланк КИ  клиент ООО НВ на отгрузку с 18.04.2024ХР.xlsx
+++ b/чистый бланк/Бланк КИ  клиент ООО НВ на отгрузку с 18.04.2024ХР.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ КИ\pokom_ki\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2837B9C4-832E-4410-8627-5FAD3134A7D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22575" windowHeight="12300" tabRatio="420"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Бланк заказа" sheetId="2" r:id="rId1"/>
     <sheet name="Setting" sheetId="3" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Бланк заказа'!$B$18:$Y$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Бланк заказа'!$B$18:$Y$530</definedName>
     <definedName name="CodeProxySet">Setting!$E$21:$E$22</definedName>
     <definedName name="Comment">'Бланк заказа'!$H$5</definedName>
     <definedName name="ContactInformation">'Бланк заказа'!$A$12</definedName>
@@ -1219,7 +1220,15 @@
     <definedName name="UnloadAdressList0004">Setting!$B$18:$B$18</definedName>
     <definedName name="UnloadAdressList0005">Setting!$B$20:$B$20</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3464,7 +3473,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
@@ -9818,58 +9827,58 @@
     </xf>
   </cellXfs>
   <cellStyles count="52">
-    <cellStyle name="20% - Акцент1 2" xfId="1"/>
-    <cellStyle name="20% - Акцент2 2" xfId="2"/>
-    <cellStyle name="20% - Акцент3 2" xfId="3"/>
-    <cellStyle name="20% - Акцент4 2" xfId="4"/>
-    <cellStyle name="20% - Акцент5 2" xfId="5"/>
-    <cellStyle name="20% - Акцент6 2" xfId="6"/>
-    <cellStyle name="40% - Акцент1 2" xfId="7"/>
-    <cellStyle name="40% - Акцент2 2" xfId="8"/>
-    <cellStyle name="40% - Акцент3 2" xfId="9"/>
-    <cellStyle name="40% - Акцент4 2" xfId="10"/>
-    <cellStyle name="40% - Акцент5 2" xfId="11"/>
-    <cellStyle name="40% - Акцент6 2" xfId="12"/>
-    <cellStyle name="60% - Акцент1 2" xfId="13"/>
-    <cellStyle name="60% - Акцент2 2" xfId="14"/>
-    <cellStyle name="60% - Акцент3 2" xfId="15"/>
-    <cellStyle name="60% - Акцент4 2" xfId="16"/>
-    <cellStyle name="60% - Акцент5 2" xfId="17"/>
-    <cellStyle name="60% - Акцент6 2" xfId="18"/>
-    <cellStyle name="Акцент1 2" xfId="19"/>
-    <cellStyle name="Акцент2 2" xfId="20"/>
-    <cellStyle name="Акцент3 2" xfId="21"/>
-    <cellStyle name="Акцент4 2" xfId="22"/>
-    <cellStyle name="Акцент5 2" xfId="23"/>
-    <cellStyle name="Акцент6 2" xfId="24"/>
-    <cellStyle name="Ввод  2" xfId="25"/>
-    <cellStyle name="Вывод 2" xfId="26"/>
-    <cellStyle name="Вычисление 2" xfId="27"/>
-    <cellStyle name="Заголовок 1 2" xfId="28"/>
-    <cellStyle name="Заголовок 2 2" xfId="29"/>
-    <cellStyle name="Заголовок 3 2" xfId="30"/>
-    <cellStyle name="Заголовок 4 2" xfId="31"/>
-    <cellStyle name="Итог 2" xfId="32"/>
-    <cellStyle name="Контрольная ячейка 2" xfId="33"/>
-    <cellStyle name="Название 2" xfId="34"/>
-    <cellStyle name="Нейтральный 2" xfId="35"/>
+    <cellStyle name="20% - Акцент1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Акцент2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Акцент3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Акцент4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Акцент5 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Акцент6 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Акцент1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Акцент2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Акцент3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Акцент4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Акцент5 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Акцент6 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Акцент1 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Акцент2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Акцент3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Акцент4 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Акцент5 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Акцент6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Акцент1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Акцент2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Акцент3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Акцент4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Акцент5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Акцент6 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Ввод  2" xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Вывод 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Вычисление 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Заголовок 1 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Заголовок 2 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Заголовок 3 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Заголовок 4 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Итог 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Контрольная ячейка 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Название 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Нейтральный 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 16" xfId="36"/>
-    <cellStyle name="Обычный 16 2" xfId="37"/>
-    <cellStyle name="Обычный 16 2 2" xfId="38"/>
-    <cellStyle name="Обычный 2" xfId="39"/>
-    <cellStyle name="Обычный 2 2" xfId="40"/>
-    <cellStyle name="Обычный 2 2 2" xfId="41"/>
-    <cellStyle name="Обычный 3" xfId="42"/>
-    <cellStyle name="Обычный 3 2" xfId="43"/>
-    <cellStyle name="Обычный 3 3" xfId="44"/>
-    <cellStyle name="Плохой 2" xfId="45"/>
-    <cellStyle name="Пояснение 2" xfId="46"/>
-    <cellStyle name="Примечание 2" xfId="47"/>
-    <cellStyle name="Примечание 2 2" xfId="48"/>
-    <cellStyle name="Связанная ячейка 2" xfId="49"/>
-    <cellStyle name="Текст предупреждения 2" xfId="50"/>
-    <cellStyle name="Хороший 2" xfId="51"/>
+    <cellStyle name="Обычный 16" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Обычный 16 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Обычный 16 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Обычный 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Обычный 2 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Обычный 2 2 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Обычный 3" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Обычный 3 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Обычный 3 3" xfId="44" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Плохой 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Пояснение 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Примечание 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Примечание 2 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Связанная ячейка 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Текст предупреждения 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Хороший 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -10146,6 +10155,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -10181,6 +10207,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -10356,12 +10399,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:BB535"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -41984,7 +42027,7 @@
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="iyAo/1KTW1QB/ptHX6ZFe9p2hYiTjnkhMxb2SScz6h5+vy0GZ8FfaCQafDp0GHQHQgAZPNQMAn0P/9UiLgLBLg==" saltValue="F2JJ1ODXeqxAGn4xVfsLEA==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="B18:Y18">
+  <autoFilter ref="B18:Y530" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="13" showButton="0"/>
     <filterColumn colId="14" showButton="0"/>
@@ -42986,51 +43029,51 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="697" yWindow="616" count="17">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="День недели загрузки. Считается сам." sqref="P6:P7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W16:AA16">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="День недели загрузки. Считается сам." sqref="P6:P7" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W16:AA16" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"80-60,60-40,40-10,70-10"</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Внимание!" error="Укажите дату загрузки. Пример 10.10.2007" prompt="Укажите дату загрузки. Пример 10.10.2007" sqref="P5:Q5">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Внимание!" error="Укажите дату загрузки. Пример 10.10.2007" prompt="Укажите дату загрузки. Пример 10.10.2007" sqref="P5:Q5" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>43831</formula1>
       <formula2>47484</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите название вашей фирмы." sqref="U6:U7"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите код клиента в системе Axapta" sqref="U10"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Определите тип Вашего заказа" sqref="U11:V11">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите название вашей фирмы." sqref="U6:U7" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите код клиента в системе Axapta" sqref="U10" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Определите тип Вашего заказа" sqref="U11:V11" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"Основной заказ, Дозаказ, Замена"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Внимание!" error="Выберите значение из списка_x000a_" prompt="Выберите значение из списка" sqref="U5:V5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Внимание!" error="Выберите значение из списка_x000a_" prompt="Выберите значение из списка" sqref="U5:V5" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>DeliveryMethodList</formula1>
     </dataValidation>
-    <dataValidation type="time" showInputMessage="1" showErrorMessage="1" errorTitle="Внимание!" error="Укаите время загрузки. Пример: 9:00" prompt="Укажите время загрузки. Пример: 9:00" sqref="P8:Q8">
+    <dataValidation type="time" showInputMessage="1" showErrorMessage="1" errorTitle="Внимание!" error="Укаите время загрузки. Пример: 9:00" prompt="Укажите время загрузки. Пример: 9:00" sqref="P8:Q8" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>0.000694444444444444</formula1>
       <formula2>0.999305555555556</formula2>
     </dataValidation>
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Внимание!" error="Укажите время доставки. Пример: 9:00" prompt="Укажите время доставки. Пример: 9:00" sqref="P10:Q13">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Внимание!" error="Укажите время доставки. Пример: 9:00" prompt="Укажите время доставки. Пример: 9:00" sqref="P10:Q13" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>0.000694444444444444</formula1>
       <formula2>0.999305555555556</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Внимание!" error="Укажите дату доставки. Пример 10.10.2007" prompt="Укажите дату доставки. Пример 10.10.2007" sqref="P9:Q9">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Внимание!" error="Укажите дату доставки. Пример 10.10.2007" prompt="Укажите дату доставки. Пример 10.10.2007" sqref="P9:Q9" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>43831</formula1>
       <formula2>47484</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:E9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:E9" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>"','Представитель клиента,'Уполномоченное лицо,'Разовая доверенность,'Будет определено на месте"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:E10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:E10" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>IF(TypeProxy="Уполномоченное лицо",NumProxySet,null)</formula1>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="укажите вес, кратный весу коробки" sqref="Y22:AA22"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U12">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="укажите вес, кратный весу коробки" sqref="Y22:AA22" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U12" xr:uid="{00000000-0002-0000-0000-00000D000000}">
       <formula1>DeliveryConditionsList</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:M6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:M6" xr:uid="{00000000-0002-0000-0000-00000E000000}">
       <formula1>DeliveryAdressList</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8:M8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8:M8" xr:uid="{00000000-0002-0000-0000-00000F000000}">
       <formula1>CHOOSE($D$7,UnloadAdressList)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:K8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:K8" xr:uid="{00000000-0002-0000-0000-000010000000}">
       <formula1>CHOOSE($D$7,UnloadAdressList0001,UnloadAdressList0002,UnloadAdressList0003,UnloadAdressList0004,UnloadAdressList0005)</formula1>
     </dataValidation>
   </dataValidations>
@@ -43044,7 +43087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -43395,6 +43438,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x010100BE9B55E4B75ADC4EA022BCFE912025B5" ma:contentTypeVersion="2" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="2ac6f31670a5913a5008fc49ead251a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb0b2827-4eb3-461f-8866-28597c48f473" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f54d7d8b2039ed4c9796edaba581cae7" ns2:_="">
     <xsd:import namespace="bb0b2827-4eb3-461f-8866-28597c48f473"/>
@@ -43542,22 +43600,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36407DDB-7AD7-47BE-9510-621E920C3D44}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{624C7E1B-E076-4729-8478-31CDA599C536}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bb0b2827-4eb3-461f-8866-28597c48f473"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE5A0B88-DB71-4916-80FA-147DE2C72DAC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -43573,28 +43640,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36407DDB-7AD7-47BE-9510-621E920C3D44}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{624C7E1B-E076-4729-8478-31CDA599C536}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bb0b2827-4eb3-461f-8866-28597c48f473"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>